--- a/data/trans_dic/P39A4_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P39A4_2023-Edad-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.8816542004127992</v>
+        <v>0.8816542004127995</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.9143725299911154</v>
+        <v>0.9143725299911151</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.8972408474577245</v>
+        <v>0.8972408474577243</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8088660094491795</v>
+        <v>0.8078956916089426</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8646020036831584</v>
+        <v>0.8594636270809582</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.855926949376336</v>
+        <v>0.8547140196710024</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9298576693986628</v>
+        <v>0.9296957486380918</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9516286740599317</v>
+        <v>0.9491671373394027</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9266567052201187</v>
+        <v>0.9299850252640687</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         <v>0.9350415019159538</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.9259091163035023</v>
+        <v>0.9259091163035024</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.9303143782710238</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8953997552515968</v>
+        <v>0.8986583812533511</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8961464797899604</v>
+        <v>0.8899616999761838</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9060160964497008</v>
+        <v>0.907605193072706</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9627327436169179</v>
+        <v>0.9618882636723526</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9474294934976148</v>
+        <v>0.9479161658993822</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9491953160580575</v>
+        <v>0.947627881980147</v>
       </c>
     </row>
     <row r="10">
@@ -677,7 +677,7 @@
         <v>0.9280453375903143</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.9249775398478187</v>
+        <v>0.9249775398478188</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.9264998470926247</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9032540028275355</v>
+        <v>0.9024271921411682</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9037612792906031</v>
+        <v>0.9049977224029986</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9103397514909067</v>
+        <v>0.9106281714249416</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9484509066103277</v>
+        <v>0.9466591852055271</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9414552742852726</v>
+        <v>0.9420531174765242</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9401236106116757</v>
+        <v>0.9388854527417446</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.933825518111393</v>
+        <v>0.9338255181113928</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.9230591875889173</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9282645824408616</v>
+        <v>0.9282645824408613</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9098011069492794</v>
+        <v>0.9112850509690712</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9056079345602045</v>
+        <v>0.9051234021427621</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9148880864098483</v>
+        <v>0.9136768188633366</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9517886021172038</v>
+        <v>0.9505483067485088</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9381579575385284</v>
+        <v>0.9384611728759668</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9399733416459812</v>
+        <v>0.9408736421635377</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8892300779487718</v>
+        <v>0.8904500727584078</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9265982529293938</v>
+        <v>0.9272045984072552</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9143640498304417</v>
+        <v>0.9139281601982403</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9357450302926188</v>
+        <v>0.9370602029754648</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9563428881515196</v>
+        <v>0.9556940059047717</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9410362912386879</v>
+        <v>0.9415685159351497</v>
       </c>
     </row>
     <row r="19">
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.9220884074883312</v>
+        <v>0.922088407488331</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.925454498450328</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.8970860532699603</v>
+        <v>0.8947523371517689</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.9019603760325999</v>
+        <v>0.9023684697031691</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9081474083358382</v>
+        <v>0.9072707198884623</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9431210018178684</v>
+        <v>0.9425823073833984</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9447488966398759</v>
+        <v>0.9428813783928154</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9370620943677714</v>
+        <v>0.9391825838809649</v>
       </c>
     </row>
     <row r="22">
@@ -894,10 +894,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.88875107426639</v>
+        <v>0.8887510742663897</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.8906251201037114</v>
+        <v>0.8906251201037115</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.8898433301099357</v>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8461536616882651</v>
+        <v>0.8487440367138285</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8644234616373975</v>
+        <v>0.8647124953193832</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8677204148962239</v>
+        <v>0.8679112878701848</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9144692058001768</v>
+        <v>0.9173660790612417</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9144756480831413</v>
+        <v>0.9125274850052406</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9090127007469824</v>
+        <v>0.9091095566520457</v>
       </c>
     </row>
     <row r="25">
@@ -949,13 +949,13 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.9189873530307753</v>
+        <v>0.9189873530307754</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.9229529434970936</v>
+        <v>0.9229529434970933</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.9210297987592954</v>
+        <v>0.9210297987592952</v>
       </c>
     </row>
     <row r="26">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.9079052981496902</v>
+        <v>0.907090016019271</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.9140236758557877</v>
+        <v>0.9132274443711186</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.913140151828074</v>
+        <v>0.9141083189874336</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.9288234597506259</v>
+        <v>0.9294301359008047</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9306294068872664</v>
+        <v>0.9303388472451977</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9271002804341353</v>
+        <v>0.9275436077683572</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>281320</v>
+        <v>280982</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>273584</v>
+        <v>271958</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>568526</v>
+        <v>567721</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>323400</v>
+        <v>323344</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>301122</v>
+        <v>300343</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>615507</v>
+        <v>617717</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>392767</v>
+        <v>394196</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>421815</v>
+        <v>418904</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>823885</v>
+        <v>825330</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>422303</v>
+        <v>421932</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>445954</v>
+        <v>446183</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>863150</v>
+        <v>861724</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>528700</v>
+        <v>528216</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>537053</v>
+        <v>537788</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1073809</v>
+        <v>1074149</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>555155</v>
+        <v>554106</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>559452</v>
+        <v>559808</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1108941</v>
+        <v>1107480</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>603095</v>
+        <v>604079</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>641318</v>
+        <v>640975</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1254357</v>
+        <v>1252697</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>630928</v>
+        <v>630106</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>664369</v>
+        <v>664583</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1288750</v>
+        <v>1289985</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>507551</v>
+        <v>508248</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>536558</v>
+        <v>536909</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1051371</v>
+        <v>1050869</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>534101</v>
+        <v>534851</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>553782</v>
+        <v>553406</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1082039</v>
+        <v>1082651</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>336789</v>
+        <v>335913</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>365735</v>
+        <v>365900</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>709187</v>
+        <v>708502</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>354072</v>
+        <v>353870</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>383085</v>
+        <v>382328</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>731767</v>
+        <v>733423</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>231538</v>
+        <v>232247</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>330472</v>
+        <v>330582</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>569172</v>
+        <v>569297</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>250232</v>
+        <v>251024</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>349607</v>
+        <v>348862</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>596257</v>
+        <v>596320</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>2954774</v>
+        <v>2952121</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>3159220</v>
+        <v>3156467</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>6127977</v>
+        <v>6134474</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>3022852</v>
+        <v>3024827</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>3216615</v>
+        <v>3215611</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>6221662</v>
+        <v>6224637</v>
       </c>
     </row>
     <row r="36">
